--- a/DigitalSchool documents/QA_Crocs.xlsx
+++ b/DigitalSchool documents/QA_Crocs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F83BC9A-CFEC-4310-9B1F-3935B87E8D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3616B56B-B424-4C0A-9F67-BF3C051F6850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="58">
   <si>
     <t>Test case 1</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Test the function:  app</t>
+    <t>Test the function:  app::app()</t>
   </si>
   <si>
     <t>Created on</t>
@@ -78,7 +78,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Testing app function</t>
+    <t>Testing app::app() function</t>
   </si>
   <si>
     <t>NULL</t>
@@ -96,13 +96,13 @@
     <t>MT_002</t>
   </si>
   <si>
-    <t>Test the function: mainMenuProcesses</t>
-  </si>
-  <si>
-    <t>Testing mainMenuProcesses function</t>
-  </si>
-  <si>
-    <t>Display main menu</t>
+    <t>Test the function: app::update()</t>
+  </si>
+  <si>
+    <t>Testing app::update() function</t>
+  </si>
+  <si>
+    <t>Updates displayed screen</t>
   </si>
   <si>
     <t>Test case 3</t>
@@ -111,13 +111,13 @@
     <t>MT_003</t>
   </si>
   <si>
-    <t>Test the function: loginPage</t>
-  </si>
-  <si>
-    <t>Testing loginPage function</t>
-  </si>
-  <si>
-    <t>Displays login menu</t>
+    <t>Test the function: app::display()</t>
+  </si>
+  <si>
+    <t>Testing app::display() function</t>
+  </si>
+  <si>
+    <t>Displays correct menu</t>
   </si>
   <si>
     <t>Test case 4</t>
@@ -126,13 +126,13 @@
     <t>MT_004</t>
   </si>
   <si>
-    <t>Test the function: registerPage</t>
-  </si>
-  <si>
-    <t>Testing registerPage function</t>
-  </si>
-  <si>
-    <t>Displays register menu</t>
+    <t>Test the function: app::pageHandler()</t>
+  </si>
+  <si>
+    <t>Testing app::pageHandler() function</t>
+  </si>
+  <si>
+    <t>Selects which menu should be displayed</t>
   </si>
   <si>
     <t>Test case 5</t>
@@ -141,13 +141,70 @@
     <t>MT_005</t>
   </si>
   <si>
-    <t>Test the function: questions</t>
-  </si>
-  <si>
-    <t>Testing questions function</t>
-  </si>
-  <si>
-    <t>Displays test menu</t>
+    <t>Test the function: login::displayLoginPage()</t>
+  </si>
+  <si>
+    <t>Testing login::displayLoginPage() function</t>
+  </si>
+  <si>
+    <t>Displays login page</t>
+  </si>
+  <si>
+    <t>Test case 6</t>
+  </si>
+  <si>
+    <t>Test the function: login::buttonHandler()</t>
+  </si>
+  <si>
+    <t>Testing login::buttonHandler() function</t>
+  </si>
+  <si>
+    <t>Selects needed button</t>
+  </si>
+  <si>
+    <t>Test case 7</t>
+  </si>
+  <si>
+    <t>Test the login::textBoxHandler()</t>
+  </si>
+  <si>
+    <t>Testing login::textBoxHandler() function</t>
+  </si>
+  <si>
+    <t>Selects needed text box</t>
+  </si>
+  <si>
+    <t>Test case 8</t>
+  </si>
+  <si>
+    <t>Test the function: mainMenu::displayMainMenu()</t>
+  </si>
+  <si>
+    <t>Testing mainMenu::displayMainMenu() function</t>
+  </si>
+  <si>
+    <t>Displays main menu</t>
+  </si>
+  <si>
+    <t>Test case 9</t>
+  </si>
+  <si>
+    <t>Test the function: mainMenu::buttonHandler(pageBools&amp; pages)</t>
+  </si>
+  <si>
+    <t>Testing mainMenu::buttonHandler(pageBools&amp; pages) function</t>
+  </si>
+  <si>
+    <t>Test case 10</t>
+  </si>
+  <si>
+    <t>Test the function: pageBools::pageBools()</t>
+  </si>
+  <si>
+    <t>Testing pageBools::pageBools() function</t>
+  </si>
+  <si>
+    <t>Sets default page bools</t>
   </si>
 </sst>
 </file>
@@ -237,13 +294,19 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,19 +316,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -617,514 +674,1020 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
-        <v>45404</v>
+      <c r="D5" s="4">
+        <v>45406</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="23.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="7">
-        <v>45404</v>
+      <c r="D15" s="4">
+        <v>45406</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="23.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
-        <v>45404</v>
+      <c r="D25" s="4">
+        <v>45406</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28" s="6">
         <v>3</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="23.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="7">
-        <v>45404</v>
+      <c r="D35" s="4">
+        <v>45406</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="6">
         <v>4</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="23.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="7">
-        <v>45404</v>
+      <c r="D45" s="4">
+        <v>45406</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1">
-      <c r="A48" s="4">
+      <c r="A48" s="6">
         <v>5</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="23.25">
+      <c r="A51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6">
+        <v>5</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="23.25">
+      <c r="A61" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6">
+        <v>5</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="71" spans="1:6" ht="23.25">
+      <c r="A71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6">
+        <v>5</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="10"/>
+    </row>
+    <row r="81" spans="1:6" ht="23.25">
+      <c r="A81" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="6">
+        <v>5</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="10"/>
+    </row>
+    <row r="91" spans="1:6" ht="23.25">
+      <c r="A91" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="6">
+        <v>5</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+  <mergeCells count="90">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="C13:C14"/>
@@ -1135,14 +1698,33 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
